--- a/data/trans_orig/P37B_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>40558</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28585</v>
+        <v>28777</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57237</v>
+        <v>56305</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1201023066117107</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08464853506334641</v>
+        <v>0.08521697093467687</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1694944964287372</v>
+        <v>0.1667341603440212</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -762,19 +762,19 @@
         <v>39113</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29818</v>
+        <v>30327</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51674</v>
+        <v>51322</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1290708970174327</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09840015897156451</v>
+        <v>0.1000788022142633</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1705237363542093</v>
+        <v>0.1693611081246504</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>86</v>
@@ -783,19 +783,19 @@
         <v>79670</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64117</v>
+        <v>65091</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>97804</v>
+        <v>98536</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1243440272669998</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1000694148832412</v>
+        <v>0.1015892065642816</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1526463743195018</v>
+        <v>0.1537887002227419</v>
       </c>
     </row>
     <row r="5">
@@ -825,7 +825,7 @@
         <v>1921</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>5242</v>
@@ -834,10 +834,10 @@
         <v>0.006337716979233834</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00182754811707674</v>
+        <v>0.001876094846300339</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01729872042090496</v>
+        <v>0.01729824950527229</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -846,19 +846,19 @@
         <v>1921</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5135</v>
+        <v>5482</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002997441493263127</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0008840376335288169</v>
+        <v>0.0008864778454902145</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.008014752242733953</v>
+        <v>0.008555521976173481</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>20307</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12981</v>
+        <v>12739</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31472</v>
+        <v>31808</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06013467630844847</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03844009647716962</v>
+        <v>0.03772476272537268</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09319597519678417</v>
+        <v>0.09419116624355374</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -896,19 +896,19 @@
         <v>10899</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6816</v>
+        <v>6793</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17760</v>
+        <v>17179</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.03596616114790792</v>
+        <v>0.03596616114790793</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02249381562632126</v>
+        <v>0.02241516881543678</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05860833079411298</v>
+        <v>0.05669081400707543</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>36</v>
@@ -920,16 +920,16 @@
         <v>22420</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>44368</v>
+        <v>42520</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04870410747583377</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03499167535654574</v>
+        <v>0.03499173810784222</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0692469410301033</v>
+        <v>0.0663627455473043</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>256157</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>237866</v>
+        <v>237931</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>273236</v>
+        <v>271545</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7585525724773657</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7043887207815027</v>
+        <v>0.7045785132385868</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8091284071044306</v>
+        <v>0.8041209625107033</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>312</v>
@@ -967,19 +967,19 @@
         <v>231086</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>216777</v>
+        <v>216259</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>244121</v>
+        <v>243508</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7625789676054696</v>
+        <v>0.7625789676054695</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7153610473904084</v>
+        <v>0.7136498934078632</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8055933482283062</v>
+        <v>0.8035708205122578</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>544</v>
@@ -988,19 +988,19 @@
         <v>487243</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>466476</v>
+        <v>465978</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>509169</v>
+        <v>506769</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7604568676462404</v>
+        <v>0.7604568676462405</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7280449610257363</v>
+        <v>0.7272680728203007</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7946771066305739</v>
+        <v>0.7909314981480556</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>20670</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12946</v>
+        <v>12523</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>32472</v>
+        <v>32450</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06121044460247518</v>
+        <v>0.0612104446024752</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03833616485291181</v>
+        <v>0.03708450336438648</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09615731063292123</v>
+        <v>0.09609414140722962</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -1038,19 +1038,19 @@
         <v>20014</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13657</v>
+        <v>13990</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28690</v>
+        <v>28974</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06604625724995612</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0450679370863625</v>
+        <v>0.04616673791849884</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09467495611395697</v>
+        <v>0.09561381881020224</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>49</v>
@@ -1059,19 +1059,19 @@
         <v>40684</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>29068</v>
+        <v>31117</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>54560</v>
+        <v>55143</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06349755611766283</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04536813283476967</v>
+        <v>0.04856593991022014</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08515356785971112</v>
+        <v>0.08606370200355865</v>
       </c>
     </row>
     <row r="9">
@@ -1163,19 +1163,19 @@
         <v>29418</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19397</v>
+        <v>19244</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42384</v>
+        <v>43386</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.0999096442772068</v>
+        <v>0.09990964427720683</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06587815568902168</v>
+        <v>0.06535547107242697</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1439445357521935</v>
+        <v>0.1473495163537849</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -1184,19 +1184,19 @@
         <v>26747</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18878</v>
+        <v>19081</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35930</v>
+        <v>36224</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09291569459735481</v>
+        <v>0.09291569459735483</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06557915465858022</v>
+        <v>0.06628242405829701</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1248154378793851</v>
+        <v>0.1258368717339191</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -1205,19 +1205,19 @@
         <v>56165</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43020</v>
+        <v>43571</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72183</v>
+        <v>71576</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09645215892666151</v>
+        <v>0.09645215892666152</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07387860463906931</v>
+        <v>0.07482421273694692</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1239592209049315</v>
+        <v>0.1229176996549853</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>2911</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6975</v>
+        <v>6678</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.01011262223886262</v>
+        <v>0.01011262223886263</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003470714834437273</v>
+        <v>0.003491195655026945</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02423069707940333</v>
+        <v>0.02319859664265505</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1268,19 +1268,19 @@
         <v>2911</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1003</v>
+        <v>1230</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6850</v>
+        <v>6551</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004999212869259028</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00172308558503884</v>
+        <v>0.002112228130683737</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01176400588802333</v>
+        <v>0.01124940844481631</v>
       </c>
     </row>
     <row r="12">
@@ -1297,19 +1297,19 @@
         <v>7325</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2849</v>
+        <v>2893</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14609</v>
+        <v>14298</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02487700935234487</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009675640391387382</v>
+        <v>0.009824680787427452</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04961460211593319</v>
+        <v>0.04855868647759343</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1318,19 +1318,19 @@
         <v>8118</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4085</v>
+        <v>4222</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15025</v>
+        <v>15348</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02819930192727799</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01419068567059452</v>
+        <v>0.01466618303043555</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05219321616893319</v>
+        <v>0.05331746802060011</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>17</v>
@@ -1339,19 +1339,19 @@
         <v>15443</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8683</v>
+        <v>8691</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>25261</v>
+        <v>24775</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02651939719238718</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01491109477073675</v>
+        <v>0.01492484380915415</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04338033266686173</v>
+        <v>0.04254574656853363</v>
       </c>
     </row>
     <row r="13">
@@ -1368,19 +1368,19 @@
         <v>231798</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>214147</v>
+        <v>215188</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>245187</v>
+        <v>246210</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.7872401970367244</v>
+        <v>0.7872401970367247</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7272916399970279</v>
+        <v>0.7308289217926618</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8327135059809527</v>
+        <v>0.836187018192182</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>309</v>
@@ -1389,19 +1389,19 @@
         <v>231793</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>219956</v>
+        <v>219750</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>243054</v>
+        <v>241923</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.8052057088229632</v>
+        <v>0.8052057088229634</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7640848597861867</v>
+        <v>0.7633702415911819</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8443231821857085</v>
+        <v>0.8403942909039884</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>518</v>
@@ -1410,19 +1410,19 @@
         <v>463591</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>443154</v>
+        <v>444569</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>480738</v>
+        <v>481912</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7961215154132222</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.761024969781715</v>
+        <v>0.7634545411383841</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8255681240977911</v>
+        <v>0.82758434132082</v>
       </c>
     </row>
     <row r="14">
@@ -1439,19 +1439,19 @@
         <v>25903</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17079</v>
+        <v>17040</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37753</v>
+        <v>37819</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08797314933372373</v>
+        <v>0.08797314933372376</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0580034610273538</v>
+        <v>0.05787188615363142</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1282171715665421</v>
+        <v>0.1284413203985716</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -1460,19 +1460,19 @@
         <v>18299</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11776</v>
+        <v>11844</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26354</v>
+        <v>25875</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06356667241354136</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0409059322481789</v>
+        <v>0.04114446450170985</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0915491732723169</v>
+        <v>0.08988443148347915</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>51</v>
@@ -1481,19 +1481,19 @@
         <v>44202</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>33907</v>
+        <v>32540</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>59016</v>
+        <v>57712</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07590771559847012</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05822809064428253</v>
+        <v>0.05588047416340047</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1013473375902145</v>
+        <v>0.09910908558162827</v>
       </c>
     </row>
     <row r="15">
@@ -1585,19 +1585,19 @@
         <v>31101</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20539</v>
+        <v>19593</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44784</v>
+        <v>43924</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09821684810884938</v>
+        <v>0.09821684810884934</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06486054276409675</v>
+        <v>0.0618729765573019</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1414275295918403</v>
+        <v>0.1387114392007959</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -1606,19 +1606,19 @@
         <v>12347</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7514</v>
+        <v>7449</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19192</v>
+        <v>19047</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1109296328815543</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06750338741435052</v>
+        <v>0.0669214680692323</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1724244407359705</v>
+        <v>0.171122633390148</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -1627,19 +1627,19 @@
         <v>43448</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31673</v>
+        <v>31814</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60001</v>
+        <v>57537</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1015232728909514</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07400797217465475</v>
+        <v>0.0743383309990029</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1402003409749653</v>
+        <v>0.1344421999131858</v>
       </c>
     </row>
     <row r="17">
@@ -1656,19 +1656,19 @@
         <v>2850</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7780</v>
+        <v>7531</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.009000634360773679</v>
+        <v>0.009000634360773675</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002706047549161052</v>
+        <v>0.002671919701816954</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02456909278794739</v>
+        <v>0.02378197000439251</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4594</v>
+        <v>4760</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01254460773955038</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04127548147061229</v>
+        <v>0.04276323018714255</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1698,19 +1698,19 @@
         <v>4246</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1429</v>
+        <v>1374</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9570</v>
+        <v>9184</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.009922374295509009</v>
+        <v>0.009922374295509007</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003340025600661267</v>
+        <v>0.003210721418361781</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02236112244125301</v>
+        <v>0.02145979562719071</v>
       </c>
     </row>
     <row r="18">
@@ -1727,19 +1727,19 @@
         <v>8588</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3362</v>
+        <v>3566</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19250</v>
+        <v>18270</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.02712108009685998</v>
+        <v>0.02712108009685997</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01061747509654046</v>
+        <v>0.01126188898413192</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06079208811830955</v>
+        <v>0.05769600703745897</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -1748,19 +1748,19 @@
         <v>4212</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1296</v>
+        <v>1319</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9650</v>
+        <v>10893</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03784326375476863</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01163943383868786</v>
+        <v>0.01184796120646061</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08669318102982641</v>
+        <v>0.09786566111282943</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>12</v>
@@ -1769,19 +1769,19 @@
         <v>12800</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6673</v>
+        <v>7153</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>23639</v>
+        <v>24728</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.029909776232177</v>
+        <v>0.02990977623217699</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01559343244364446</v>
+        <v>0.01671364674973478</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05523630609610829</v>
+        <v>0.05778003400007624</v>
       </c>
     </row>
     <row r="19">
@@ -1798,19 +1798,19 @@
         <v>251834</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>233210</v>
+        <v>234962</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>266528</v>
+        <v>267483</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.7952892136302148</v>
+        <v>0.7952892136302144</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7364748464175755</v>
+        <v>0.7420064973254337</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8416940020976476</v>
+        <v>0.8447080688305146</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>115</v>
@@ -1819,19 +1819,19 @@
         <v>82912</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>74541</v>
+        <v>74284</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>90632</v>
+        <v>90412</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7448854402850427</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.669682381212133</v>
+        <v>0.6673728961476797</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8142495386641488</v>
+        <v>0.8122646360961345</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>353</v>
@@ -1840,19 +1840,19 @@
         <v>334746</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>314812</v>
+        <v>316777</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>350614</v>
+        <v>350916</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.7821798683310042</v>
+        <v>0.7821798683310041</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7356029311357632</v>
+        <v>0.7401943864904589</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8192597157526949</v>
+        <v>0.8199650965753417</v>
       </c>
     </row>
     <row r="20">
@@ -1869,19 +1869,19 @@
         <v>22284</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14140</v>
+        <v>14293</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>34524</v>
+        <v>34374</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07037222380330227</v>
+        <v>0.07037222380330224</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04465383800103547</v>
+        <v>0.04513820509494736</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1090270545536177</v>
+        <v>0.1085535962892882</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -1890,19 +1890,19 @@
         <v>10440</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6596</v>
+        <v>6586</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16488</v>
+        <v>16377</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09379705533908404</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05925642979574303</v>
+        <v>0.05917201790492631</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1481326665066191</v>
+        <v>0.1471318957808971</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>38</v>
@@ -1911,19 +1911,19 @@
         <v>32724</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>23066</v>
+        <v>23015</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>44660</v>
+        <v>44859</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.0764647082503583</v>
+        <v>0.07646470825035828</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05389696902716306</v>
+        <v>0.05377682022213174</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1043534519552538</v>
+        <v>0.1048194416520775</v>
       </c>
     </row>
     <row r="21">
@@ -2015,19 +2015,19 @@
         <v>70690</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52755</v>
+        <v>53842</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>93783</v>
+        <v>92840</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09772616848283174</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07293191239836747</v>
+        <v>0.07443503035291281</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1296519957811268</v>
+        <v>0.1283483845348351</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>74</v>
@@ -2036,19 +2036,19 @@
         <v>56809</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45314</v>
+        <v>45297</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72044</v>
+        <v>71615</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09791654101928879</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07810473575313474</v>
+        <v>0.07807530777665388</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1241764672379805</v>
+        <v>0.1234376174457254</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>126</v>
@@ -2057,19 +2057,19 @@
         <v>127499</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>105699</v>
+        <v>105164</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>154950</v>
+        <v>151619</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.09781089994320333</v>
+        <v>0.09781089994320331</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08108718268953458</v>
+        <v>0.08067697251534874</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1188702568949992</v>
+        <v>0.1163148741875936</v>
       </c>
     </row>
     <row r="23">
@@ -2086,19 +2086,19 @@
         <v>6231</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1763</v>
+        <v>1237</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19446</v>
+        <v>18705</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.008614019352009067</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.002437504879954996</v>
+        <v>0.001709661289053319</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02688363647655814</v>
+        <v>0.02585931153115069</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -2107,19 +2107,19 @@
         <v>5877</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2135</v>
+        <v>2711</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12461</v>
+        <v>13203</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0101292192097673</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003679198245326296</v>
+        <v>0.004672027745532281</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02147752034132507</v>
+        <v>0.0227576081670169</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>11</v>
@@ -2128,19 +2128,19 @@
         <v>12108</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5902</v>
+        <v>6159</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>23750</v>
+        <v>24034</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.009288408100995746</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00452761274184824</v>
+        <v>0.004724738673487979</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01821983532561531</v>
+        <v>0.01843753617614995</v>
       </c>
     </row>
     <row r="24">
@@ -2157,19 +2157,19 @@
         <v>25654</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16818</v>
+        <v>16353</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>38361</v>
+        <v>37487</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03546611346485415</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0232497533838959</v>
+        <v>0.02260691338221375</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05303229356284442</v>
+        <v>0.05182377307582097</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -2178,19 +2178,19 @@
         <v>11293</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6774</v>
+        <v>6660</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>19852</v>
+        <v>19449</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01946566122553485</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01167606103295442</v>
+        <v>0.01147974989843849</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03421646774614039</v>
+        <v>0.0335233232420262</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>39</v>
@@ -2199,19 +2199,19 @@
         <v>36948</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>26377</v>
+        <v>25749</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>51173</v>
+        <v>50870</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02834459420543419</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02023544558139177</v>
+        <v>0.01975369160318396</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03925753516695495</v>
+        <v>0.03902519109795299</v>
       </c>
     </row>
     <row r="25">
@@ -2228,19 +2228,19 @@
         <v>560324</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>532055</v>
+        <v>534450</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>584606</v>
+        <v>587195</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.7746262743547094</v>
+        <v>0.7746262743547095</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7355454152321481</v>
+        <v>0.7388573836602329</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.808196200797663</v>
+        <v>0.8117750648883653</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>613</v>
@@ -2249,19 +2249,19 @@
         <v>454459</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>435944</v>
+        <v>435943</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>471462</v>
+        <v>471932</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.7833132837802329</v>
+        <v>0.783313283780233</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7514015504457681</v>
+        <v>0.7513998258104641</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8126196770823431</v>
+        <v>0.813430683808956</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1109</v>
@@ -2270,19 +2270,19 @@
         <v>1014782</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>979656</v>
+        <v>982407</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1043940</v>
+        <v>1044483</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.7784927091282595</v>
+        <v>0.7784927091282593</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7515457565133865</v>
+        <v>0.7536556144692363</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8008613984545273</v>
+        <v>0.8012773006937979</v>
       </c>
     </row>
     <row r="26">
@@ -2299,19 +2299,19 @@
         <v>60448</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>46801</v>
+        <v>46432</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>80481</v>
+        <v>78753</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08356742434559547</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0647010021313444</v>
+        <v>0.06419065183856881</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1112624542282804</v>
+        <v>0.1088724378507222</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>73</v>
@@ -2320,19 +2320,19 @@
         <v>51737</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>40521</v>
+        <v>41016</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>65352</v>
+        <v>67139</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08917529476517597</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06984230614809855</v>
+        <v>0.07069534217835022</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1126422286995864</v>
+        <v>0.1157217857880313</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>133</v>
@@ -2341,19 +2341,19 @@
         <v>112186</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>93534</v>
+        <v>94396</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>134884</v>
+        <v>135339</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.08606338862210727</v>
+        <v>0.08606338862210725</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0717549359431152</v>
+        <v>0.07241627951509011</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1034763816075853</v>
+        <v>0.1038255233002288</v>
       </c>
     </row>
     <row r="27">
@@ -2445,19 +2445,19 @@
         <v>30285</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>18996</v>
+        <v>20309</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>45453</v>
+        <v>46500</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07361910537528611</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04617622433724061</v>
+        <v>0.04936937528323193</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1104902330027202</v>
+        <v>0.1130372896658486</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>94</v>
@@ -2466,19 +2466,19 @@
         <v>66355</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>55081</v>
+        <v>53968</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>79679</v>
+        <v>78580</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1264616366678253</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1049746848797472</v>
+        <v>0.1028536090075023</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1518551132669914</v>
+        <v>0.149759557484464</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>119</v>
@@ -2487,19 +2487,19 @@
         <v>96640</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>80663</v>
+        <v>79901</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>115800</v>
+        <v>116053</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1032392481760516</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08617080171262216</v>
+        <v>0.08535731436392192</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1237073251127865</v>
+        <v>0.1239777756683679</v>
       </c>
     </row>
     <row r="29">
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18219</v>
+        <v>19229</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01079680075652754</v>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0442892604576865</v>
+        <v>0.04674269033099338</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -2537,19 +2537,19 @@
         <v>3886</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1727</v>
+        <v>1478</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8395</v>
+        <v>8633</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.007405814218720854</v>
+        <v>0.007405814218720852</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003290910380812348</v>
+        <v>0.002817622127038705</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01599944343991992</v>
+        <v>0.01645235616150865</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8</v>
@@ -2558,19 +2558,19 @@
         <v>8327</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3421</v>
+        <v>3304</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21407</v>
+        <v>23559</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.008896030618752387</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003654123892216817</v>
+        <v>0.00352988053912435</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0228690129067415</v>
+        <v>0.02516727424906482</v>
       </c>
     </row>
     <row r="30">
@@ -2587,19 +2587,19 @@
         <v>19132</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11483</v>
+        <v>10756</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>31056</v>
+        <v>30893</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.04650659560771023</v>
+        <v>0.04650659560771024</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02791369222434701</v>
+        <v>0.02614783772867721</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07549373633783638</v>
+        <v>0.07509757298546242</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>16</v>
@@ -2608,19 +2608,19 @@
         <v>11315</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6785</v>
+        <v>6740</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18846</v>
+        <v>18440</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02156411271083829</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.012930557047613</v>
+        <v>0.01284582903508098</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03591688172167036</v>
+        <v>0.03514409811776344</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>34</v>
@@ -2629,19 +2629,19 @@
         <v>30446</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20748</v>
+        <v>21173</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>42595</v>
+        <v>42304</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03252543522156293</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02216524353318696</v>
+        <v>0.02261939688109531</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04550402675738878</v>
+        <v>0.04519280343262257</v>
       </c>
     </row>
     <row r="31">
@@ -2658,19 +2658,19 @@
         <v>332014</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>312572</v>
+        <v>310676</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>349312</v>
+        <v>348921</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.8070899116993081</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.75982905671845</v>
+        <v>0.7552186224789483</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.849139773379688</v>
+        <v>0.8481878108393565</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>540</v>
@@ -2679,19 +2679,19 @@
         <v>389319</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>371321</v>
+        <v>371867</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>405096</v>
+        <v>405360</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.7419762061261157</v>
+        <v>0.7419762061261156</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.7076762929189925</v>
+        <v>0.7087154308695345</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.7720460184526584</v>
+        <v>0.7725491928665461</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>824</v>
@@ -2700,19 +2700,19 @@
         <v>721333</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>692612</v>
+        <v>693638</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>744622</v>
+        <v>745289</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.7705913335617905</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.7399096623581038</v>
+        <v>0.7410056404306793</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7954713250853701</v>
+        <v>0.796183622400756</v>
       </c>
     </row>
     <row r="32">
@@ -2729,19 +2729,19 @@
         <v>25500</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>16486</v>
+        <v>16290</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>39191</v>
+        <v>40119</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06198758656116798</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04007560651562523</v>
+        <v>0.0395999720633313</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09526826389571739</v>
+        <v>0.09752477691444258</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>78</v>
@@ -2750,19 +2750,19 @@
         <v>53831</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>43008</v>
+        <v>42402</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>68148</v>
+        <v>66572</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1025922302764999</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08196533206131869</v>
+        <v>0.08081034329009421</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1298790207749828</v>
+        <v>0.1268742189295135</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>101</v>
@@ -2771,19 +2771,19 @@
         <v>79331</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>65138</v>
+        <v>65265</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>96622</v>
+        <v>98199</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08474795242184256</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06958583010771539</v>
+        <v>0.06972196080092191</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1032203309209376</v>
+        <v>0.1049049261058175</v>
       </c>
     </row>
     <row r="33">
@@ -2875,19 +2875,19 @@
         <v>20882</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>9440</v>
+        <v>9479</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>38635</v>
+        <v>39923</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.09769229315129303</v>
+        <v>0.09769229315129307</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04416286942724276</v>
+        <v>0.04434804249933199</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1807489301462821</v>
+        <v>0.1867741259573736</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>43</v>
@@ -2896,19 +2896,19 @@
         <v>37348</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>25978</v>
+        <v>26806</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>54841</v>
+        <v>55075</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.08236064730594471</v>
+        <v>0.08236064730594475</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05728554040078938</v>
+        <v>0.05911229328527338</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1209362300280083</v>
+        <v>0.1214507561012649</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>51</v>
@@ -2917,19 +2917,19 @@
         <v>58230</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>41372</v>
+        <v>39866</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>81966</v>
+        <v>79657</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.08727224812937193</v>
+        <v>0.08727224812937194</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06200551316144139</v>
+        <v>0.05974958743733297</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1228457602376861</v>
+        <v>0.1193861910034512</v>
       </c>
     </row>
     <row r="35">
@@ -2959,19 +2959,19 @@
         <v>4621</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1979</v>
+        <v>1894</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>9731</v>
+        <v>8705</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.01018915732533631</v>
+        <v>0.01018915732533632</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.004362987736133741</v>
+        <v>0.004176770773359686</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02145787338953094</v>
+        <v>0.01919635532547776</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -2980,19 +2980,19 @@
         <v>4621</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2035</v>
+        <v>1773</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>9503</v>
+        <v>9125</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.006924988950071173</v>
+        <v>0.006924988950071174</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.003049206713171397</v>
+        <v>0.002657481370979707</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01424202215236206</v>
+        <v>0.01367632577343603</v>
       </c>
     </row>
     <row r="36">
@@ -3022,19 +3022,19 @@
         <v>12657</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>8017</v>
+        <v>7819</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>19160</v>
+        <v>18901</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.02791058474422722</v>
+        <v>0.02791058474422723</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01767966744211224</v>
+        <v>0.01724162243684792</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04225139962527096</v>
+        <v>0.04168012550907921</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>21</v>
@@ -3043,19 +3043,19 @@
         <v>12657</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>7768</v>
+        <v>7983</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>19242</v>
+        <v>19742</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.01896923217224138</v>
+        <v>0.01896923217224139</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0116420904237396</v>
+        <v>0.01196405500422405</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02883884978856789</v>
+        <v>0.02958865971689935</v>
       </c>
     </row>
     <row r="37">
@@ -3072,19 +3072,19 @@
         <v>179254</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>158383</v>
+        <v>159030</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>194130</v>
+        <v>194903</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.8386132976339068</v>
+        <v>0.8386132976339066</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7409709582177081</v>
+        <v>0.7439981660242369</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9082083585987324</v>
+        <v>0.9118276913275557</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>388</v>
@@ -3093,19 +3093,19 @@
         <v>366895</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>347305</v>
+        <v>347482</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>383220</v>
+        <v>382916</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.8090766692285072</v>
+        <v>0.8090766692285074</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.7658769549543752</v>
+        <v>0.7662667140719713</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8450767624834361</v>
+        <v>0.8444067092344955</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>469</v>
@@ -3114,19 +3114,19 @@
         <v>546148</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>516982</v>
+        <v>520334</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>569296</v>
+        <v>569011</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.8185389363497659</v>
+        <v>0.818538936349766</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.7748270182711851</v>
+        <v>0.7798503560345429</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.8532326926845659</v>
+        <v>0.852804893070426</v>
       </c>
     </row>
     <row r="38">
@@ -3143,19 +3143,19 @@
         <v>13615</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>5240</v>
+        <v>3551</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>31303</v>
+        <v>29766</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.06369440921480025</v>
+        <v>0.06369440921480028</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02451482162709187</v>
+        <v>0.01661416460031719</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.146445490599696</v>
+        <v>0.1392548018654752</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>38</v>
@@ -3164,19 +3164,19 @@
         <v>31953</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>22015</v>
+        <v>22168</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>45539</v>
+        <v>45958</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.07046294139598448</v>
+        <v>0.0704629413959845</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.04854689424768532</v>
+        <v>0.04888556175223461</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1004235344788793</v>
+        <v>0.1013460568366018</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>44</v>
@@ -3185,19 +3185,19 @@
         <v>45568</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>31227</v>
+        <v>32020</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>64349</v>
+        <v>63979</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.06829459439854949</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.04680103074589741</v>
+        <v>0.04799055769568729</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.09644233228524575</v>
+        <v>0.0958889643263232</v>
       </c>
     </row>
     <row r="39">
@@ -3289,19 +3289,19 @@
         <v>222933</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>193403</v>
+        <v>193834</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>262895</v>
+        <v>261577</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.09704287879668749</v>
+        <v>0.09704287879668751</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.08418864470563381</v>
+        <v>0.08437598503508487</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1144384950016933</v>
+        <v>0.1138647758075213</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>318</v>
@@ -3310,19 +3310,19 @@
         <v>238720</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>211141</v>
+        <v>214332</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>265637</v>
+        <v>269011</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1056018940346038</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.09340185533407085</v>
+        <v>0.0948136503912491</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1175092168477101</v>
+        <v>0.1190016421801851</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>485</v>
@@ -3331,19 +3331,19 @@
         <v>461652</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>420536</v>
+        <v>418075</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>508882</v>
+        <v>510094</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1012879273639907</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.09226674788016009</v>
+        <v>0.0917269085868567</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1116502958618516</v>
+        <v>0.1119161306748182</v>
       </c>
     </row>
     <row r="41">
@@ -3360,19 +3360,19 @@
         <v>13523</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6090</v>
+        <v>6159</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>27375</v>
+        <v>29225</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.005886375294835234</v>
+        <v>0.005886375294835235</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.00265086679335025</v>
+        <v>0.002680897841806047</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01191643047267478</v>
+        <v>0.01272158526322411</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>30</v>
@@ -3381,19 +3381,19 @@
         <v>20611</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>13755</v>
+        <v>14479</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>28738</v>
+        <v>30164</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.00911766660771297</v>
+        <v>0.009117666607712968</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.006084562298180139</v>
+        <v>0.006405263686490156</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01271261755492773</v>
+        <v>0.01334378192628963</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>39</v>
@@ -3402,19 +3402,19 @@
         <v>34134</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>23565</v>
+        <v>24031</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>50883</v>
+        <v>50555</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.00748901160017851</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.00517021031040469</v>
+        <v>0.005272490794712929</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01116390287488901</v>
+        <v>0.01109187138963353</v>
       </c>
     </row>
     <row r="42">
@@ -3431,19 +3431,19 @@
         <v>81006</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>63488</v>
+        <v>64364</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>100586</v>
+        <v>102214</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.03526188483999297</v>
+        <v>0.03526188483999299</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.02763624710975503</v>
+        <v>0.02801788651670604</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.04378517178462934</v>
+        <v>0.04449394810025444</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>83</v>
@@ -3452,19 +3452,19 @@
         <v>58494</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>46148</v>
+        <v>44971</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>73324</v>
+        <v>72986</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02587579828494593</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0204145785175662</v>
+        <v>0.01989392976618086</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03243631116430204</v>
+        <v>0.03228650305457399</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>159</v>
@@ -3473,19 +3473,19 @@
         <v>139500</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>119716</v>
+        <v>118767</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>164476</v>
+        <v>163577</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03060663044734084</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02626605778786493</v>
+        <v>0.02605793205719369</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.0360865452103104</v>
+        <v>0.03588926340786129</v>
       </c>
     </row>
     <row r="43">
@@ -3502,19 +3502,19 @@
         <v>1811381</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1767762</v>
+        <v>1762801</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1858088</v>
+        <v>1854451</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.7884954155681733</v>
+        <v>0.7884954155681734</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.7695082467512186</v>
+        <v>0.7673488846687424</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.8088270808884185</v>
+        <v>0.8072438809896917</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>2277</v>
@@ -3523,19 +3523,19 @@
         <v>1756463</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1718628</v>
+        <v>1716351</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>1790705</v>
+        <v>1789401</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.7770028565887314</v>
+        <v>0.7770028565887312</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.7602657094825043</v>
+        <v>0.7592584382530445</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.7921503510784436</v>
+        <v>0.791573362917018</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>3817</v>
@@ -3544,19 +3544,19 @@
         <v>3567843</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>3511786</v>
+        <v>3503952</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>3628540</v>
+        <v>3623953</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.7827954057336067</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.7704962889087126</v>
+        <v>0.76877750023627</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.7961125637428095</v>
+        <v>0.7951061728440835</v>
       </c>
     </row>
     <row r="44">
@@ -3573,19 +3573,19 @@
         <v>168420</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>141755</v>
+        <v>141145</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>197973</v>
+        <v>201128</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.07331344550031088</v>
+        <v>0.07331344550031089</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.06170619975336454</v>
+        <v>0.0614405372744314</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.08617764309412802</v>
+        <v>0.08755117130346528</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>261</v>
@@ -3594,19 +3594,19 @@
         <v>186274</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>165221</v>
+        <v>163804</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>213651</v>
+        <v>210903</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.08240178448400606</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.07308836317273837</v>
+        <v>0.07246184361923695</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.09451230214821914</v>
+        <v>0.09329692889081176</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>416</v>
@@ -3615,19 +3615,19 @@
         <v>354694</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>317750</v>
+        <v>318837</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>390476</v>
+        <v>392826</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.07782102485488318</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0697152054865188</v>
+        <v>0.06995373685441189</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.08567161403948836</v>
+        <v>0.08618719971905445</v>
       </c>
     </row>
     <row r="45">
